--- a/javascript parsing/test.xlsx
+++ b/javascript parsing/test.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koudai\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFF5701-40FB-46F0-8946-0293196BFC05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A03D9D2-B06C-4DA1-9E67-49AA9F6FCD9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{32DB4E18-1ED6-4EB2-9F08-4A556AE7EC47}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{32DB4E18-1ED6-4EB2-9F08-4A556AE7EC47}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
     <sheet name="links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2835,9 +2836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6532499B-2062-4FE6-9B5E-D3410AD20E8B}">
   <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D179"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6512,9 +6513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D581F3E9-7183-4F55-B714-53131F80CC97}">
   <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D285"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6566,7 +6567,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -6584,7 +6585,7 @@
         },</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -6602,7 +6603,7 @@
         },</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -6620,7 +6621,7 @@
         },</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -6638,7 +6639,7 @@
         },</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>176</v>
       </c>
@@ -6656,7 +6657,7 @@
         },</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>177</v>
       </c>
@@ -6674,7 +6675,7 @@
         },</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -6692,7 +6693,7 @@
         },</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -6710,7 +6711,7 @@
         },</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -6728,7 +6729,7 @@
         },</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -6746,7 +6747,7 @@
         },</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>182</v>
       </c>
@@ -6764,7 +6765,7 @@
         },</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -6782,7 +6783,7 @@
         },</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>184</v>
       </c>
@@ -6800,7 +6801,7 @@
         },</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>185</v>
       </c>
@@ -6818,7 +6819,7 @@
         },</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -6836,7 +6837,7 @@
         },</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>187</v>
       </c>
@@ -6854,7 +6855,7 @@
         },</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>188</v>
       </c>
@@ -6872,7 +6873,7 @@
         },</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -6890,7 +6891,7 @@
         },</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>190</v>
       </c>
@@ -6908,7 +6909,7 @@
         },</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -6926,7 +6927,7 @@
         },</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>192</v>
       </c>
@@ -6944,7 +6945,7 @@
         },</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>193</v>
       </c>
@@ -6962,7 +6963,7 @@
         },</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>194</v>
       </c>
@@ -6980,7 +6981,7 @@
         },</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>195</v>
       </c>
@@ -6998,7 +6999,7 @@
         },</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>196</v>
       </c>
@@ -7016,7 +7017,7 @@
         },</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>197</v>
       </c>
@@ -7034,7 +7035,7 @@
         },</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>198</v>
       </c>
@@ -7052,7 +7053,7 @@
         },</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>199</v>
       </c>
@@ -7070,7 +7071,7 @@
         },</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>200</v>
       </c>
@@ -7088,7 +7089,7 @@
         },</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>201</v>
       </c>
@@ -7106,7 +7107,7 @@
         },</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>202</v>
       </c>
@@ -7124,7 +7125,7 @@
         },</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -7142,7 +7143,7 @@
         },</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>204</v>
       </c>
@@ -7160,7 +7161,7 @@
         },</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>205</v>
       </c>
@@ -7178,7 +7179,7 @@
         },</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>206</v>
       </c>
@@ -7196,7 +7197,7 @@
         },</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>207</v>
       </c>
@@ -7214,7 +7215,7 @@
         },</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>208</v>
       </c>
@@ -7232,7 +7233,7 @@
         },</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>209</v>
       </c>
@@ -7250,7 +7251,7 @@
         },</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -7268,7 +7269,7 @@
         },</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>211</v>
       </c>
@@ -7286,7 +7287,7 @@
         },</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>212</v>
       </c>
@@ -7304,7 +7305,7 @@
         },</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>213</v>
       </c>
@@ -7322,7 +7323,7 @@
         },</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>214</v>
       </c>
@@ -7340,7 +7341,7 @@
         },</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>215</v>
       </c>
@@ -7358,7 +7359,7 @@
         },</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>216</v>
       </c>
@@ -7376,7 +7377,7 @@
         },</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>217</v>
       </c>
@@ -7394,7 +7395,7 @@
         },</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -7412,7 +7413,7 @@
         },</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>219</v>
       </c>
@@ -7430,7 +7431,7 @@
         },</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>220</v>
       </c>
@@ -7448,7 +7449,7 @@
         },</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>221</v>
       </c>
@@ -7466,7 +7467,7 @@
         },</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>222</v>
       </c>
@@ -7484,7 +7485,7 @@
         },</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>223</v>
       </c>
@@ -7502,7 +7503,7 @@
         },</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>224</v>
       </c>
@@ -7520,7 +7521,7 @@
         },</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>225</v>
       </c>
@@ -7538,7 +7539,7 @@
         },</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>226</v>
       </c>
@@ -7556,7 +7557,7 @@
         },</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>227</v>
       </c>
@@ -7574,7 +7575,7 @@
         },</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>228</v>
       </c>
@@ -7592,7 +7593,7 @@
         },</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>229</v>
       </c>
@@ -7610,7 +7611,7 @@
         },</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>230</v>
       </c>
@@ -7628,7 +7629,7 @@
         },</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>231</v>
       </c>
@@ -7646,7 +7647,7 @@
         },</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>232</v>
       </c>
@@ -7664,7 +7665,7 @@
         },</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>233</v>
       </c>
@@ -7682,7 +7683,7 @@
         },</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>234</v>
       </c>
@@ -7700,7 +7701,7 @@
         },</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>235</v>
       </c>
@@ -7718,7 +7719,7 @@
         },</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>236</v>
       </c>
@@ -7736,7 +7737,7 @@
         },</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>237</v>
       </c>
@@ -7754,7 +7755,7 @@
         },</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>238</v>
       </c>
@@ -7772,7 +7773,7 @@
         },</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>239</v>
       </c>
@@ -7790,7 +7791,7 @@
         },</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>240</v>
       </c>
@@ -7808,7 +7809,7 @@
         },</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>241</v>
       </c>
@@ -7826,7 +7827,7 @@
         },</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>242</v>
       </c>
@@ -7844,7 +7845,7 @@
         },</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>243</v>
       </c>
@@ -7862,7 +7863,7 @@
         },</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>244</v>
       </c>
@@ -7880,7 +7881,7 @@
         },</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>245</v>
       </c>
@@ -7898,7 +7899,7 @@
         },</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>246</v>
       </c>
@@ -7916,7 +7917,7 @@
         },</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>247</v>
       </c>
@@ -7934,7 +7935,7 @@
         },</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -7952,7 +7953,7 @@
         },</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>249</v>
       </c>
@@ -7970,7 +7971,7 @@
         },</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>250</v>
       </c>
@@ -7988,7 +7989,7 @@
         },</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>251</v>
       </c>
@@ -8006,7 +8007,7 @@
         },</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>252</v>
       </c>
@@ -8024,7 +8025,7 @@
         },</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>253</v>
       </c>
@@ -8042,7 +8043,7 @@
         },</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>254</v>
       </c>
@@ -8060,7 +8061,7 @@
         },</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>255</v>
       </c>
@@ -8078,7 +8079,7 @@
         },</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>256</v>
       </c>
@@ -8096,7 +8097,7 @@
         },</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>257</v>
       </c>
@@ -8114,7 +8115,7 @@
         },</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>258</v>
       </c>
@@ -8132,7 +8133,7 @@
         },</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>259</v>
       </c>
@@ -8150,7 +8151,7 @@
         },</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>260</v>
       </c>
@@ -8168,7 +8169,7 @@
         },</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>261</v>
       </c>
@@ -8186,7 +8187,7 @@
         },</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>262</v>
       </c>
@@ -8204,7 +8205,7 @@
         },</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>263</v>
       </c>
@@ -8222,7 +8223,7 @@
         },</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>264</v>
       </c>
@@ -8240,7 +8241,7 @@
         },</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>265</v>
       </c>
@@ -8258,7 +8259,7 @@
         },</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>266</v>
       </c>
@@ -8276,7 +8277,7 @@
         },</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>267</v>
       </c>
@@ -8294,7 +8295,7 @@
         },</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>268</v>
       </c>
@@ -8312,7 +8313,7 @@
         },</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>269</v>
       </c>
@@ -8330,7 +8331,7 @@
         },</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>270</v>
       </c>
@@ -8348,7 +8349,7 @@
         },</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>271</v>
       </c>
@@ -8366,7 +8367,7 @@
         },</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>272</v>
       </c>
@@ -8384,7 +8385,7 @@
         },</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>273</v>
       </c>
@@ -8402,7 +8403,7 @@
         },</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>274</v>
       </c>
@@ -8420,7 +8421,7 @@
         },</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>275</v>
       </c>
@@ -8438,7 +8439,7 @@
         },</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>276</v>
       </c>
@@ -8456,7 +8457,7 @@
         },</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>277</v>
       </c>
@@ -8474,7 +8475,7 @@
         },</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>278</v>
       </c>
@@ -8492,7 +8493,7 @@
         },</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>279</v>
       </c>
@@ -8510,7 +8511,7 @@
         },</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>280</v>
       </c>
@@ -8528,7 +8529,7 @@
         },</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>281</v>
       </c>
@@ -8546,7 +8547,7 @@
         },</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>282</v>
       </c>
@@ -8564,7 +8565,7 @@
         },</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>283</v>
       </c>
@@ -8582,7 +8583,7 @@
         },</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>284</v>
       </c>
@@ -8600,7 +8601,7 @@
         },</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>285</v>
       </c>
@@ -8618,7 +8619,7 @@
         },</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>286</v>
       </c>
@@ -8636,7 +8637,7 @@
         },</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>287</v>
       </c>
@@ -8654,7 +8655,7 @@
         },</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>288</v>
       </c>
@@ -8672,7 +8673,7 @@
         },</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>289</v>
       </c>
@@ -8690,7 +8691,7 @@
         },</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>290</v>
       </c>
@@ -8708,7 +8709,7 @@
         },</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>291</v>
       </c>
@@ -8726,7 +8727,7 @@
         },</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>292</v>
       </c>
@@ -8744,7 +8745,7 @@
         },</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>293</v>
       </c>
@@ -8762,7 +8763,7 @@
         },</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>294</v>
       </c>
@@ -8780,7 +8781,7 @@
         },</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>295</v>
       </c>
@@ -8798,7 +8799,7 @@
         },</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>296</v>
       </c>
@@ -8816,7 +8817,7 @@
         },</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>297</v>
       </c>
@@ -8834,7 +8835,7 @@
         },</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>298</v>
       </c>
@@ -8852,7 +8853,7 @@
         },</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>299</v>
       </c>
@@ -8870,7 +8871,7 @@
         },</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>300</v>
       </c>
@@ -8888,7 +8889,7 @@
         },</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>301</v>
       </c>
@@ -8906,7 +8907,7 @@
         },</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>302</v>
       </c>
@@ -8924,7 +8925,7 @@
         },</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>303</v>
       </c>
@@ -8942,7 +8943,7 @@
         },</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>304</v>
       </c>
@@ -8960,7 +8961,7 @@
         },</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>305</v>
       </c>
@@ -8978,7 +8979,7 @@
         },</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>306</v>
       </c>
@@ -8996,7 +8997,7 @@
         },</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>307</v>
       </c>
@@ -9014,7 +9015,7 @@
         },</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>308</v>
       </c>
@@ -9032,7 +9033,7 @@
         },</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>309</v>
       </c>
@@ -9050,7 +9051,7 @@
         },</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>310</v>
       </c>
@@ -9068,7 +9069,7 @@
         },</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>311</v>
       </c>
@@ -9086,7 +9087,7 @@
         },</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>312</v>
       </c>
@@ -9104,7 +9105,7 @@
         },</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>313</v>
       </c>
@@ -9122,7 +9123,7 @@
         },</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>314</v>
       </c>
@@ -9140,7 +9141,7 @@
         },</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>315</v>
       </c>
@@ -9158,7 +9159,7 @@
         },</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>316</v>
       </c>
@@ -9176,7 +9177,7 @@
         },</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>317</v>
       </c>
@@ -9194,7 +9195,7 @@
         },</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>318</v>
       </c>
@@ -9212,7 +9213,7 @@
         },</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>319</v>
       </c>
@@ -9230,7 +9231,7 @@
         },</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>320</v>
       </c>
@@ -9248,7 +9249,7 @@
         },</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>321</v>
       </c>
@@ -9266,7 +9267,7 @@
         },</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>322</v>
       </c>
@@ -9284,7 +9285,7 @@
         },</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>323</v>
       </c>
@@ -9302,7 +9303,7 @@
         },</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>324</v>
       </c>
@@ -9320,7 +9321,7 @@
         },</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>325</v>
       </c>
@@ -9338,7 +9339,7 @@
         },</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>326</v>
       </c>
@@ -9356,7 +9357,7 @@
         },</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>327</v>
       </c>
@@ -9374,7 +9375,7 @@
         },</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>328</v>
       </c>
@@ -9392,7 +9393,7 @@
         },</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>329</v>
       </c>
@@ -9410,7 +9411,7 @@
         },</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>330</v>
       </c>
@@ -9428,7 +9429,7 @@
         },</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>331</v>
       </c>
@@ -9446,7 +9447,7 @@
         },</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -9464,7 +9465,7 @@
         },</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>333</v>
       </c>
@@ -9482,7 +9483,7 @@
         },</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>334</v>
       </c>
@@ -9500,7 +9501,7 @@
         },</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>335</v>
       </c>
@@ -9518,7 +9519,7 @@
         },</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>336</v>
       </c>
@@ -9536,7 +9537,7 @@
         },</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>337</v>
       </c>
@@ -9554,7 +9555,7 @@
         },</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>338</v>
       </c>
@@ -9572,7 +9573,7 @@
         },</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>339</v>
       </c>
@@ -9590,7 +9591,7 @@
         },</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>340</v>
       </c>
@@ -9608,7 +9609,7 @@
         },</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>341</v>
       </c>
@@ -9626,7 +9627,7 @@
         },</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>342</v>
       </c>
@@ -9644,7 +9645,7 @@
         },</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>343</v>
       </c>
@@ -9662,7 +9663,7 @@
         },</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>344</v>
       </c>
@@ -9680,7 +9681,7 @@
         },</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>345</v>
       </c>
@@ -9698,7 +9699,7 @@
         },</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>346</v>
       </c>
@@ -9716,7 +9717,7 @@
         },</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>347</v>
       </c>
@@ -9734,7 +9735,7 @@
         },</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>348</v>
       </c>
@@ -9752,7 +9753,7 @@
         },</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>349</v>
       </c>
@@ -9770,7 +9771,7 @@
         },</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>350</v>
       </c>
@@ -9788,7 +9789,7 @@
         },</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>351</v>
       </c>
@@ -9806,7 +9807,7 @@
         },</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>352</v>
       </c>
@@ -9824,7 +9825,7 @@
         },</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>353</v>
       </c>
@@ -9842,7 +9843,7 @@
         },</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>354</v>
       </c>
@@ -9860,7 +9861,7 @@
         },</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>355</v>
       </c>
@@ -9878,7 +9879,7 @@
         },</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>356</v>
       </c>
@@ -9896,7 +9897,7 @@
         },</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>357</v>
       </c>
@@ -9914,7 +9915,7 @@
         },</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>358</v>
       </c>
@@ -9932,7 +9933,7 @@
         },</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>359</v>
       </c>
@@ -9950,7 +9951,7 @@
         },</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>360</v>
       </c>
@@ -9968,7 +9969,7 @@
         },</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>361</v>
       </c>
@@ -9986,7 +9987,7 @@
         },</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>362</v>
       </c>
@@ -10004,7 +10005,7 @@
         },</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>363</v>
       </c>
@@ -10022,7 +10023,7 @@
         },</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>364</v>
       </c>
@@ -10040,7 +10041,7 @@
         },</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>365</v>
       </c>
@@ -10058,7 +10059,7 @@
         },</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>366</v>
       </c>
@@ -10076,7 +10077,7 @@
         },</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>367</v>
       </c>
@@ -10094,7 +10095,7 @@
         },</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>368</v>
       </c>
@@ -10112,7 +10113,7 @@
         },</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>369</v>
       </c>
@@ -10130,7 +10131,7 @@
         },</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>370</v>
       </c>
@@ -10148,7 +10149,7 @@
         },</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>371</v>
       </c>
@@ -10166,7 +10167,7 @@
         },</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>372</v>
       </c>
@@ -10184,7 +10185,7 @@
         },</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>373</v>
       </c>
@@ -10202,7 +10203,7 @@
         },</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>374</v>
       </c>
@@ -10220,7 +10221,7 @@
         },</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>375</v>
       </c>
@@ -10238,7 +10239,7 @@
         },</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>376</v>
       </c>
@@ -10256,7 +10257,7 @@
         },</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>377</v>
       </c>
@@ -10274,7 +10275,7 @@
         },</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>378</v>
       </c>
@@ -10292,7 +10293,7 @@
         },</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>379</v>
       </c>
@@ -10310,7 +10311,7 @@
         },</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>380</v>
       </c>
@@ -10328,7 +10329,7 @@
         },</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>381</v>
       </c>
@@ -10346,7 +10347,7 @@
         },</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>382</v>
       </c>
@@ -10364,7 +10365,7 @@
         },</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>383</v>
       </c>
@@ -10382,7 +10383,7 @@
         },</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>384</v>
       </c>
@@ -10400,7 +10401,7 @@
         },</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>385</v>
       </c>
@@ -10418,7 +10419,7 @@
         },</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>386</v>
       </c>
@@ -10436,7 +10437,7 @@
         },</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>387</v>
       </c>
@@ -10454,7 +10455,7 @@
         },</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>388</v>
       </c>
@@ -10472,7 +10473,7 @@
         },</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>389</v>
       </c>
@@ -10490,7 +10491,7 @@
         },</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>390</v>
       </c>
@@ -10508,7 +10509,7 @@
         },</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>391</v>
       </c>
@@ -10526,7 +10527,7 @@
         },</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>392</v>
       </c>
@@ -10544,7 +10545,7 @@
         },</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>393</v>
       </c>
@@ -10562,7 +10563,7 @@
         },</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>394</v>
       </c>
@@ -10580,7 +10581,7 @@
         },</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>395</v>
       </c>
@@ -10598,7 +10599,7 @@
         },</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>396</v>
       </c>
@@ -10616,7 +10617,7 @@
         },</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>397</v>
       </c>
@@ -10634,7 +10635,7 @@
         },</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>398</v>
       </c>
@@ -10652,7 +10653,7 @@
         },</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>399</v>
       </c>
@@ -10670,7 +10671,7 @@
         },</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>400</v>
       </c>
@@ -10688,7 +10689,7 @@
         },</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>401</v>
       </c>
@@ -10706,7 +10707,7 @@
         },</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>402</v>
       </c>
@@ -10724,7 +10725,7 @@
         },</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>403</v>
       </c>
@@ -10742,7 +10743,7 @@
         },</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>404</v>
       </c>
@@ -10760,7 +10761,7 @@
         },</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>405</v>
       </c>
@@ -10778,7 +10779,7 @@
         },</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>406</v>
       </c>
@@ -10796,7 +10797,7 @@
         },</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>407</v>
       </c>
@@ -10814,7 +10815,7 @@
         },</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>408</v>
       </c>
@@ -10832,7 +10833,7 @@
         },</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>409</v>
       </c>
@@ -10850,7 +10851,7 @@
         },</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>410</v>
       </c>
@@ -10868,7 +10869,7 @@
         },</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>411</v>
       </c>
@@ -10886,7 +10887,7 @@
         },</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>412</v>
       </c>
@@ -10904,7 +10905,7 @@
         },</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>413</v>
       </c>
@@ -10922,7 +10923,7 @@
         },</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>414</v>
       </c>
@@ -10940,7 +10941,7 @@
         },</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>415</v>
       </c>
@@ -10958,7 +10959,7 @@
         },</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>416</v>
       </c>
@@ -10976,7 +10977,7 @@
         },</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>417</v>
       </c>
@@ -10994,7 +10995,7 @@
         },</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>418</v>
       </c>
@@ -11012,7 +11013,7 @@
         },</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>419</v>
       </c>
@@ -11030,7 +11031,7 @@
         },</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>420</v>
       </c>
@@ -11048,7 +11049,7 @@
         },</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>421</v>
       </c>
@@ -11066,7 +11067,7 @@
         },</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>422</v>
       </c>
@@ -11084,7 +11085,7 @@
         },</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>423</v>
       </c>
@@ -11102,7 +11103,7 @@
         },</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>424</v>
       </c>
@@ -11120,7 +11121,7 @@
         },</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>425</v>
       </c>
@@ -11138,7 +11139,7 @@
         },</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>426</v>
       </c>
@@ -11156,7 +11157,7 @@
         },</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>427</v>
       </c>
@@ -11174,7 +11175,7 @@
         },</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>428</v>
       </c>
@@ -11192,7 +11193,7 @@
         },</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>429</v>
       </c>
@@ -11210,7 +11211,7 @@
         },</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>430</v>
       </c>
@@ -11228,7 +11229,7 @@
         },</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>431</v>
       </c>
@@ -11246,7 +11247,7 @@
         },</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>432</v>
       </c>
@@ -11264,7 +11265,7 @@
         },</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>433</v>
       </c>
@@ -11282,7 +11283,7 @@
         },</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>434</v>
       </c>
@@ -11300,7 +11301,7 @@
         },</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>435</v>
       </c>
@@ -11318,7 +11319,7 @@
         },</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>436</v>
       </c>
@@ -11336,7 +11337,7 @@
         },</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>437</v>
       </c>
@@ -11354,7 +11355,7 @@
         },</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>438</v>
       </c>
@@ -11372,7 +11373,7 @@
         },</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>439</v>
       </c>
@@ -11390,7 +11391,7 @@
         },</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>440</v>
       </c>
@@ -11408,7 +11409,7 @@
         },</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>441</v>
       </c>
@@ -11426,7 +11427,7 @@
         },</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>442</v>
       </c>
@@ -11444,7 +11445,7 @@
         },</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>443</v>
       </c>
@@ -11462,7 +11463,7 @@
         },</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>444</v>
       </c>
@@ -11480,7 +11481,7 @@
         },</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>445</v>
       </c>
@@ -11498,7 +11499,7 @@
         },</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>446</v>
       </c>
@@ -11516,7 +11517,7 @@
         },</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>447</v>
       </c>
@@ -11534,7 +11535,7 @@
         },</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>448</v>
       </c>
@@ -11552,7 +11553,7 @@
         },</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>449</v>
       </c>
@@ -11573,5 +11574,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>